--- a/Chonqqing Power Grid/data-files/2018年协议库存用量统计.xlsx
+++ b/Chonqqing Power Grid/data-files/2018年协议库存用量统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="11712" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="11712"/>
   </bookViews>
   <sheets>
     <sheet name="使用金额" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>锥形水泥杆</t>
   </si>
@@ -288,17 +288,13 @@
   <si>
     <t>同轴电缆</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>铅封</t>
-    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,13 +492,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -982,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,12 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1342,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4023,18 +4006,6 @@
         <v>78310.521199999988</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="6">
-        <v>2499.9971999999998</v>
-      </c>
-      <c r="M74" s="6"/>
-      <c r="O74" s="6">
-        <v>14000.039999999999</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4044,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6725,17 +6696,6 @@
         <v>12206</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="6">
-        <v>35000</v>
-      </c>
-      <c r="O74" s="6">
-        <v>200000</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
